--- a/docs/attachments/octopusreport.xlsx
+++ b/docs/attachments/octopusreport.xlsx
@@ -1,48 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12135" tabRatio="675"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Report" sheetId="4" r:id="rId1"/>
-    <sheet name="Report settings" sheetId="7" r:id="rId2"/>
-    <sheet name="Raw Data" sheetId="1" r:id="rId3"/>
-    <sheet name="Deployment outcomes" sheetId="9" r:id="rId4"/>
-    <sheet name="Deployment activity" sheetId="5" r:id="rId5"/>
-    <sheet name="Average deployment time" sheetId="6" r:id="rId6"/>
-  </sheets>
-  <definedNames>
-    <definedName name="NativeTimeline_QueueTime">#N/A</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
-  <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
-    <pivotCache cacheId="9" r:id="rId8"/>
-  </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
-      <x15:timelineCacheRefs>
-        <x15:timelineCacheRef r:id="rId9"/>
-      </x15:timelineCacheRefs>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -5893,82 +5848,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-      <mc:Choice Requires="tsle">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="QueueTime"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer name="QueueTime"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="190499" y="638174"/>
-              <a:ext cx="6505575" cy="1181100"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100"/>
-                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Administrator" refreshedDate="42243.580471875001" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="101">
   <cacheSource type="worksheet">
@@ -10080,415 +9959,6 @@
     <s v="paul.stovell"/>
   </r>
 </pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
-  <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField name="Deployment outcome" axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Deployments" fld="0" subtotal="count" baseField="10" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="A4:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField name="Project" axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField name="Environment" axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField numFmtId="22" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="6"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Deployments" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="8" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
-  <location ref="A4:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField name="Environment" axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField name="Day" numFmtId="22" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="6"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average deployment time" fld="15" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10830,5518 +10300,6 @@
 </timelines>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="C3:J6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="6" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="16.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="9" max="9" width="12.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J3"/>
-    </row>
-    <row r="5" spans="3:10" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C5" s="8">
-        <f>GETPIVOTDATA("DeploymentId",'Deployment activity'!$A$4)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B2:B12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
-      <x15:timelineRefs>
-        <x15:timelineRef r:id="rId2"/>
-      </x15:timelineRefs>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:Q108"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L8" s="2">
-        <v>42193.295486111114</v>
-      </c>
-      <c r="M8" s="2">
-        <v>42193.295486111114</v>
-      </c>
-      <c r="N8" s="2">
-        <v>42193.295486111114</v>
-      </c>
-      <c r="O8" s="2">
-        <v>42193.295752314814</v>
-      </c>
-      <c r="P8">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L9" s="2">
-        <v>42193.296458333331</v>
-      </c>
-      <c r="M9" s="2">
-        <v>42193.296458333331</v>
-      </c>
-      <c r="N9" s="2">
-        <v>42193.296458333331</v>
-      </c>
-      <c r="O9" s="2">
-        <v>42193.296712962961</v>
-      </c>
-      <c r="P9">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L10" s="2">
-        <v>42193.297175925924</v>
-      </c>
-      <c r="M10" s="2">
-        <v>42193.297175925924</v>
-      </c>
-      <c r="N10" s="2">
-        <v>42193.297175925924</v>
-      </c>
-      <c r="O10" s="2">
-        <v>42193.297430555554</v>
-      </c>
-      <c r="P10">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L11" s="2">
-        <v>42198.186435185184</v>
-      </c>
-      <c r="M11" s="2">
-        <v>42198.186435185184</v>
-      </c>
-      <c r="N11" s="2">
-        <v>42198.186435185184</v>
-      </c>
-      <c r="O11" s="2">
-        <v>42198.186689814815</v>
-      </c>
-      <c r="P11">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L12" s="2">
-        <v>42202.17046296296</v>
-      </c>
-      <c r="M12" s="2">
-        <v>42202.17046296296</v>
-      </c>
-      <c r="N12" s="2">
-        <v>42202.17046296296</v>
-      </c>
-      <c r="O12" s="2">
-        <v>42202.170671296299</v>
-      </c>
-      <c r="P12">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L13" s="2">
-        <v>42202.234548611108</v>
-      </c>
-      <c r="M13" s="2">
-        <v>42202.234548611108</v>
-      </c>
-      <c r="N13" s="2">
-        <v>42202.234548611108</v>
-      </c>
-      <c r="O13" s="2">
-        <v>42202.234756944446</v>
-      </c>
-      <c r="P13">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L14" s="2">
-        <v>42202.23510416667</v>
-      </c>
-      <c r="M14" s="2">
-        <v>42202.23510416667</v>
-      </c>
-      <c r="N14" s="2">
-        <v>42202.23510416667</v>
-      </c>
-      <c r="O14" s="2">
-        <v>42202.235312500001</v>
-      </c>
-      <c r="P14">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L15" s="2">
-        <v>42202.235509259262</v>
-      </c>
-      <c r="M15" s="2">
-        <v>42202.235509259262</v>
-      </c>
-      <c r="N15" s="2">
-        <v>42202.235509259262</v>
-      </c>
-      <c r="O15" s="2">
-        <v>42202.235717592594</v>
-      </c>
-      <c r="P15">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L16" s="2">
-        <v>42204.920787037037</v>
-      </c>
-      <c r="M16" s="2">
-        <v>42204.920787037037</v>
-      </c>
-      <c r="N16" s="2">
-        <v>42204.920787037037</v>
-      </c>
-      <c r="O16" s="2">
-        <v>42204.921053240738</v>
-      </c>
-      <c r="P16">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L17" s="2">
-        <v>42204.921631944446</v>
-      </c>
-      <c r="M17" s="2">
-        <v>42204.921620370369</v>
-      </c>
-      <c r="N17" s="2">
-        <v>42204.921631944446</v>
-      </c>
-      <c r="O17" s="2">
-        <v>42204.921875</v>
-      </c>
-      <c r="P17">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L18" s="2">
-        <v>42205.048668981479</v>
-      </c>
-      <c r="M18" s="2">
-        <v>42205.048668981479</v>
-      </c>
-      <c r="N18" s="2">
-        <v>42205.048668981479</v>
-      </c>
-      <c r="O18" s="2">
-        <v>42205.04892361111</v>
-      </c>
-      <c r="P18">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L19" s="2">
-        <v>42205.068344907406</v>
-      </c>
-      <c r="M19" s="2">
-        <v>42205.068344907406</v>
-      </c>
-      <c r="N19" s="2">
-        <v>42205.068344907406</v>
-      </c>
-      <c r="O19" s="2">
-        <v>42205.068449074075</v>
-      </c>
-      <c r="P19">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L20" s="2">
-        <v>42205.068726851852</v>
-      </c>
-      <c r="M20" s="2">
-        <v>42205.068726851852</v>
-      </c>
-      <c r="N20" s="2">
-        <v>42205.068726851852</v>
-      </c>
-      <c r="O20" s="2">
-        <v>42205.06962962963</v>
-      </c>
-      <c r="P20">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L21" s="2">
-        <v>42205.070428240739</v>
-      </c>
-      <c r="M21" s="2">
-        <v>42205.070428240739</v>
-      </c>
-      <c r="N21" s="2">
-        <v>42205.070428240739</v>
-      </c>
-      <c r="O21" s="2">
-        <v>42205.070636574077</v>
-      </c>
-      <c r="P21">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L22" s="2">
-        <v>42205.071076388886</v>
-      </c>
-      <c r="M22" s="2">
-        <v>42205.071076388886</v>
-      </c>
-      <c r="N22" s="2">
-        <v>42205.071076388886</v>
-      </c>
-      <c r="O22" s="2">
-        <v>42205.071273148147</v>
-      </c>
-      <c r="P22">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L23" s="2">
-        <v>42205.071446759262</v>
-      </c>
-      <c r="M23" s="2">
-        <v>42205.071446759262</v>
-      </c>
-      <c r="N23" s="2">
-        <v>42205.071446759262</v>
-      </c>
-      <c r="O23" s="2">
-        <v>42205.071701388886</v>
-      </c>
-      <c r="P23">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L24" s="2">
-        <v>42205.072002314817</v>
-      </c>
-      <c r="M24" s="2">
-        <v>42205.072002314817</v>
-      </c>
-      <c r="N24" s="2">
-        <v>42205.073854166665</v>
-      </c>
-      <c r="O24" s="2">
-        <v>42205.07534722222</v>
-      </c>
-      <c r="P24">
-        <v>289</v>
-      </c>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L25" s="2">
-        <v>42205.076863425929</v>
-      </c>
-      <c r="M25" s="2">
-        <v>42205.076863425929</v>
-      </c>
-      <c r="N25" s="2">
-        <v>42205.076863425929</v>
-      </c>
-      <c r="O25" s="2">
-        <v>42205.077060185184</v>
-      </c>
-      <c r="P25">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L26" s="2">
-        <v>42205.077175925922</v>
-      </c>
-      <c r="M26" s="2">
-        <v>42205.077175925922</v>
-      </c>
-      <c r="N26" s="2">
-        <v>42205.077175925922</v>
-      </c>
-      <c r="O26" s="2">
-        <v>42205.077372685184</v>
-      </c>
-      <c r="P26">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L27" s="2">
-        <v>42205.077615740738</v>
-      </c>
-      <c r="M27" s="2">
-        <v>42205.077615740738</v>
-      </c>
-      <c r="N27" s="2">
-        <v>42205.077615740738</v>
-      </c>
-      <c r="O27" s="2">
-        <v>42205.0778125</v>
-      </c>
-      <c r="P27">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L28" s="2">
-        <v>42205.078148148146</v>
-      </c>
-      <c r="M28" s="2">
-        <v>42205.078148148146</v>
-      </c>
-      <c r="N28" s="2">
-        <v>42205.078148148146</v>
-      </c>
-      <c r="O28" s="2">
-        <v>42205.079050925924</v>
-      </c>
-      <c r="P28">
-        <v>78</v>
-      </c>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L29" s="2">
-        <v>42207.170358796298</v>
-      </c>
-      <c r="M29" s="2">
-        <v>42207.170358796298</v>
-      </c>
-      <c r="N29" s="2">
-        <v>42207.170358796298</v>
-      </c>
-      <c r="O29" s="2">
-        <v>42207.170567129629</v>
-      </c>
-      <c r="P29">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L30" s="2">
-        <v>42207.170601851853</v>
-      </c>
-      <c r="M30" s="2">
-        <v>42207.170601851853</v>
-      </c>
-      <c r="N30" s="2">
-        <v>42207.170601851853</v>
-      </c>
-      <c r="O30" s="2">
-        <v>42207.170844907407</v>
-      </c>
-      <c r="P30">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L31" s="2">
-        <v>42207.171099537038</v>
-      </c>
-      <c r="M31" s="2">
-        <v>42207.171099537038</v>
-      </c>
-      <c r="N31" s="2">
-        <v>42207.171099537038</v>
-      </c>
-      <c r="O31" s="2">
-        <v>42207.171307870369</v>
-      </c>
-      <c r="P31">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L32" s="2">
-        <v>42207.171342592592</v>
-      </c>
-      <c r="M32" s="2">
-        <v>42207.171342592592</v>
-      </c>
-      <c r="N32" s="2">
-        <v>42207.171342592592</v>
-      </c>
-      <c r="O32" s="2">
-        <v>42207.171643518515</v>
-      </c>
-      <c r="P32">
-        <v>26</v>
-      </c>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L33" s="2">
-        <v>42207.173796296294</v>
-      </c>
-      <c r="M33" s="2">
-        <v>42207.173796296294</v>
-      </c>
-      <c r="N33" s="2">
-        <v>42207.173796296294</v>
-      </c>
-      <c r="O33" s="2">
-        <v>42207.174004629633</v>
-      </c>
-      <c r="P33">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L34" s="2">
-        <v>42207.174016203702</v>
-      </c>
-      <c r="M34" s="2">
-        <v>42207.174016203702</v>
-      </c>
-      <c r="N34" s="2">
-        <v>42207.174016203702</v>
-      </c>
-      <c r="O34" s="2">
-        <v>42207.174317129633</v>
-      </c>
-      <c r="P34">
-        <v>26</v>
-      </c>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L35" s="2">
-        <v>42214.171388888892</v>
-      </c>
-      <c r="M35" s="2">
-        <v>42214.171388888892</v>
-      </c>
-      <c r="N35" s="2">
-        <v>42214.171388888892</v>
-      </c>
-      <c r="O35" s="2">
-        <v>42214.171597222223</v>
-      </c>
-      <c r="P35">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L36" s="2">
-        <v>42214.171631944446</v>
-      </c>
-      <c r="M36" s="2">
-        <v>42214.171631944446</v>
-      </c>
-      <c r="N36" s="2">
-        <v>42214.171631944446</v>
-      </c>
-      <c r="O36" s="2">
-        <v>42214.171875</v>
-      </c>
-      <c r="P36">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L37" s="2">
-        <v>42214.1721412037</v>
-      </c>
-      <c r="M37" s="2">
-        <v>42214.1721412037</v>
-      </c>
-      <c r="N37" s="2">
-        <v>42214.1721412037</v>
-      </c>
-      <c r="O37" s="2">
-        <v>42214.172337962962</v>
-      </c>
-      <c r="P37">
-        <v>17</v>
-      </c>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L38" s="2">
-        <v>42214.172384259262</v>
-      </c>
-      <c r="M38" s="2">
-        <v>42214.172384259262</v>
-      </c>
-      <c r="N38" s="2">
-        <v>42214.172384259262</v>
-      </c>
-      <c r="O38" s="2">
-        <v>42214.172685185185</v>
-      </c>
-      <c r="P38">
-        <v>26</v>
-      </c>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L39" s="2">
-        <v>42214.173900462964</v>
-      </c>
-      <c r="M39" s="2">
-        <v>42214.173900462964</v>
-      </c>
-      <c r="N39" s="2">
-        <v>42214.173900462964</v>
-      </c>
-      <c r="O39" s="2">
-        <v>42214.174201388887</v>
-      </c>
-      <c r="P39">
-        <v>26</v>
-      </c>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L40" s="2">
-        <v>42214.174212962964</v>
-      </c>
-      <c r="M40" s="2">
-        <v>42214.174212962964</v>
-      </c>
-      <c r="N40" s="2">
-        <v>42214.174212962964</v>
-      </c>
-      <c r="O40" s="2">
-        <v>42214.174560185187</v>
-      </c>
-      <c r="P40">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L41" s="2">
-        <v>42220.588078703702</v>
-      </c>
-      <c r="M41" s="2">
-        <v>42220.588078703702</v>
-      </c>
-      <c r="N41" s="2">
-        <v>42220.588078703702</v>
-      </c>
-      <c r="O41" s="2">
-        <v>42220.588287037041</v>
-      </c>
-      <c r="P41">
-        <v>18</v>
-      </c>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L42" s="2">
-        <v>42220.588321759256</v>
-      </c>
-      <c r="M42" s="2">
-        <v>42220.588321759256</v>
-      </c>
-      <c r="N42" s="2">
-        <v>42220.588333333333</v>
-      </c>
-      <c r="O42" s="2">
-        <v>42220.588622685187</v>
-      </c>
-      <c r="P42">
-        <v>26</v>
-      </c>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L43" s="2">
-        <v>42220.588738425926</v>
-      </c>
-      <c r="M43" s="2">
-        <v>42220.588738425926</v>
-      </c>
-      <c r="N43" s="2">
-        <v>42220.588750000003</v>
-      </c>
-      <c r="O43" s="2">
-        <v>42220.588946759257</v>
-      </c>
-      <c r="P43">
-        <v>18</v>
-      </c>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L44" s="2">
-        <v>42220.58898148148</v>
-      </c>
-      <c r="M44" s="2">
-        <v>42220.58898148148</v>
-      </c>
-      <c r="N44" s="2">
-        <v>42220.58898148148</v>
-      </c>
-      <c r="O44" s="2">
-        <v>42220.589247685188</v>
-      </c>
-      <c r="P44">
-        <v>23</v>
-      </c>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L45" s="2">
-        <v>42221.174479166664</v>
-      </c>
-      <c r="M45" s="2">
-        <v>42221.174479166664</v>
-      </c>
-      <c r="N45" s="2">
-        <v>42221.174479166664</v>
-      </c>
-      <c r="O45" s="2">
-        <v>42221.174699074072</v>
-      </c>
-      <c r="P45">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L46" s="2">
-        <v>42221.174710648149</v>
-      </c>
-      <c r="M46" s="2">
-        <v>42221.174710648149</v>
-      </c>
-      <c r="N46" s="2">
-        <v>42221.174710648149</v>
-      </c>
-      <c r="O46" s="2">
-        <v>42221.17496527778</v>
-      </c>
-      <c r="P46">
-        <v>22</v>
-      </c>
-      <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L47" s="2">
-        <v>42222.902222222219</v>
-      </c>
-      <c r="M47" s="2">
-        <v>42222.902222222219</v>
-      </c>
-      <c r="N47" s="2">
-        <v>42222.902222222219</v>
-      </c>
-      <c r="O47" s="2">
-        <v>42222.902233796296</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="L48" s="2">
-        <v>42223.206678240742</v>
-      </c>
-      <c r="M48" s="2">
-        <v>42223.206678240742</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L49" s="2">
-        <v>42223.235069444447</v>
-      </c>
-      <c r="M49" s="2">
-        <v>42223.235069444447</v>
-      </c>
-      <c r="N49" s="2">
-        <v>42223.235092592593</v>
-      </c>
-      <c r="O49" s="2">
-        <v>42223.235509259262</v>
-      </c>
-      <c r="P49">
-        <v>38</v>
-      </c>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L50" s="2">
-        <v>42223.235671296294</v>
-      </c>
-      <c r="M50" s="2">
-        <v>42223.235671296294</v>
-      </c>
-      <c r="N50" s="2">
-        <v>42223.235671296294</v>
-      </c>
-      <c r="O50" s="2">
-        <v>42223.236817129633</v>
-      </c>
-      <c r="P50">
-        <v>99</v>
-      </c>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L51" s="2">
-        <v>42226.254120370373</v>
-      </c>
-      <c r="M51" s="2">
-        <v>42226.254120370373</v>
-      </c>
-      <c r="N51" s="2">
-        <v>42226.254120370373</v>
-      </c>
-      <c r="O51" s="2">
-        <v>42226.254432870373</v>
-      </c>
-      <c r="P51">
-        <v>27</v>
-      </c>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L52" s="2">
-        <v>42226.254479166666</v>
-      </c>
-      <c r="M52" s="2">
-        <v>42226.254479166666</v>
-      </c>
-      <c r="N52" s="2">
-        <v>42226.254479166666</v>
-      </c>
-      <c r="O52" s="2">
-        <v>42226.254733796297</v>
-      </c>
-      <c r="P52">
-        <v>22</v>
-      </c>
-      <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L53" s="2">
-        <v>42226.255104166667</v>
-      </c>
-      <c r="M53" s="2">
-        <v>42226.255104166667</v>
-      </c>
-      <c r="N53" s="2">
-        <v>42226.255104166667</v>
-      </c>
-      <c r="O53" s="2">
-        <v>42226.25540509259</v>
-      </c>
-      <c r="P53">
-        <v>26</v>
-      </c>
-      <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L54" s="2">
-        <v>42226.255462962959</v>
-      </c>
-      <c r="M54" s="2">
-        <v>42226.255462962959</v>
-      </c>
-      <c r="N54" s="2">
-        <v>42226.255462962959</v>
-      </c>
-      <c r="O54" s="2">
-        <v>42226.25576388889</v>
-      </c>
-      <c r="P54">
-        <v>26</v>
-      </c>
-      <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L55" s="2">
-        <v>42228.17396990741</v>
-      </c>
-      <c r="M55" s="2">
-        <v>42228.17396990741</v>
-      </c>
-      <c r="N55" s="2">
-        <v>42228.17396990741</v>
-      </c>
-      <c r="O55" s="2">
-        <v>42228.174201388887</v>
-      </c>
-      <c r="P55">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L56" s="2">
-        <v>42228.174201388887</v>
-      </c>
-      <c r="M56" s="2">
-        <v>42228.174201388887</v>
-      </c>
-      <c r="N56" s="2">
-        <v>42228.174201388887</v>
-      </c>
-      <c r="O56" s="2">
-        <v>42228.174502314818</v>
-      </c>
-      <c r="P56">
-        <v>26</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L57" s="2">
-        <v>42235.170844907407</v>
-      </c>
-      <c r="M57" s="2">
-        <v>42235.170844907407</v>
-      </c>
-      <c r="N57" s="2">
-        <v>42235.170844907407</v>
-      </c>
-      <c r="O57" s="2">
-        <v>42235.171018518522</v>
-      </c>
-      <c r="P57">
-        <v>15</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L58" s="2">
-        <v>42235.171099537038</v>
-      </c>
-      <c r="M58" s="2">
-        <v>42235.171099537038</v>
-      </c>
-      <c r="N58" s="2">
-        <v>42235.171099537038</v>
-      </c>
-      <c r="O58" s="2">
-        <v>42235.171249999999</v>
-      </c>
-      <c r="P58">
-        <v>13</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L59" s="2">
-        <v>42235.171527777777</v>
-      </c>
-      <c r="M59" s="2">
-        <v>42235.171527777777</v>
-      </c>
-      <c r="N59" s="2">
-        <v>42235.171527777777</v>
-      </c>
-      <c r="O59" s="2">
-        <v>42235.171701388892</v>
-      </c>
-      <c r="P59">
-        <v>15</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L60" s="2">
-        <v>42235.171770833331</v>
-      </c>
-      <c r="M60" s="2">
-        <v>42235.171770833331</v>
-      </c>
-      <c r="N60" s="2">
-        <v>42235.171770833331</v>
-      </c>
-      <c r="O60" s="2">
-        <v>42235.171932870369</v>
-      </c>
-      <c r="P60">
-        <v>14</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L61" s="2">
-        <v>42235.173981481479</v>
-      </c>
-      <c r="M61" s="2">
-        <v>42235.173981481479</v>
-      </c>
-      <c r="N61" s="2">
-        <v>42235.173993055556</v>
-      </c>
-      <c r="O61" s="2">
-        <v>42235.174178240741</v>
-      </c>
-      <c r="P61">
-        <v>17</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L62" s="2">
-        <v>42235.174178240741</v>
-      </c>
-      <c r="M62" s="2">
-        <v>42235.174178240741</v>
-      </c>
-      <c r="N62" s="2">
-        <v>42235.174189814818</v>
-      </c>
-      <c r="O62" s="2">
-        <v>42235.174421296295</v>
-      </c>
-      <c r="P62">
-        <v>21</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L63" s="2">
-        <v>42242.129201388889</v>
-      </c>
-      <c r="M63" s="2">
-        <v>42242.129201388889</v>
-      </c>
-      <c r="N63" s="2">
-        <v>42242.129201388889</v>
-      </c>
-      <c r="O63" s="2">
-        <v>42242.12940972222</v>
-      </c>
-      <c r="P63">
-        <v>18</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L64" s="2">
-        <v>42242.12945601852</v>
-      </c>
-      <c r="M64" s="2">
-        <v>42242.12945601852</v>
-      </c>
-      <c r="N64" s="2">
-        <v>42242.12945601852</v>
-      </c>
-      <c r="O64" s="2">
-        <v>42242.129629629628</v>
-      </c>
-      <c r="P64">
-        <v>15</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L65" s="2">
-        <v>42242.129918981482</v>
-      </c>
-      <c r="M65" s="2">
-        <v>42242.129918981482</v>
-      </c>
-      <c r="N65" s="2">
-        <v>42242.129918981482</v>
-      </c>
-      <c r="O65" s="2">
-        <v>42242.130115740743</v>
-      </c>
-      <c r="P65">
-        <v>17</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L66" s="2">
-        <v>42242.130162037036</v>
-      </c>
-      <c r="M66" s="2">
-        <v>42242.130162037036</v>
-      </c>
-      <c r="N66" s="2">
-        <v>42242.130162037036</v>
-      </c>
-      <c r="O66" s="2">
-        <v>42242.130312499998</v>
-      </c>
-      <c r="P66">
-        <v>13</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L67" s="2">
-        <v>42242.173946759256</v>
-      </c>
-      <c r="M67" s="2">
-        <v>42242.173946759256</v>
-      </c>
-      <c r="N67" s="2">
-        <v>42242.173946759256</v>
-      </c>
-      <c r="O67" s="2">
-        <v>42242.174143518518</v>
-      </c>
-      <c r="P67">
-        <v>17</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L68" s="2">
-        <v>42242.174155092594</v>
-      </c>
-      <c r="M68" s="2">
-        <v>42242.174155092594</v>
-      </c>
-      <c r="N68" s="2">
-        <v>42242.174155092594</v>
-      </c>
-      <c r="O68" s="2">
-        <v>42242.174317129633</v>
-      </c>
-      <c r="P68">
-        <v>14</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L69" s="2">
-        <v>42242.75445601852</v>
-      </c>
-      <c r="M69" s="2">
-        <v>42242.75445601852</v>
-      </c>
-      <c r="N69" s="2">
-        <v>42242.75445601852</v>
-      </c>
-      <c r="O69" s="2">
-        <v>42242.754652777781</v>
-      </c>
-      <c r="P69">
-        <v>17</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L70" s="2">
-        <v>42242.754710648151</v>
-      </c>
-      <c r="M70" s="2">
-        <v>42242.754710648151</v>
-      </c>
-      <c r="N70" s="2">
-        <v>42242.754710648151</v>
-      </c>
-      <c r="O70" s="2">
-        <v>42242.754872685182</v>
-      </c>
-      <c r="P70">
-        <v>14</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L71" s="2">
-        <v>42242.755057870374</v>
-      </c>
-      <c r="M71" s="2">
-        <v>42242.755046296297</v>
-      </c>
-      <c r="N71" s="2">
-        <v>42242.755057870374</v>
-      </c>
-      <c r="O71" s="2">
-        <v>42242.755243055559</v>
-      </c>
-      <c r="P71">
-        <v>17</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L72" s="2">
-        <v>42242.755300925928</v>
-      </c>
-      <c r="M72" s="2">
-        <v>42242.755300925928</v>
-      </c>
-      <c r="N72" s="2">
-        <v>42242.755300925928</v>
-      </c>
-      <c r="O72" s="2">
-        <v>42242.75545138889</v>
-      </c>
-      <c r="P72">
-        <v>13</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L73" s="2">
-        <v>42242.796122685184</v>
-      </c>
-      <c r="M73" s="2">
-        <v>42242.796122685184</v>
-      </c>
-      <c r="N73" s="2">
-        <v>42242.796122685184</v>
-      </c>
-      <c r="O73" s="2">
-        <v>42242.796319444446</v>
-      </c>
-      <c r="P73">
-        <v>17</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L74" s="2">
-        <v>42242.796377314815</v>
-      </c>
-      <c r="M74" s="2">
-        <v>42242.796377314815</v>
-      </c>
-      <c r="N74" s="2">
-        <v>42242.796377314815</v>
-      </c>
-      <c r="O74" s="2">
-        <v>42242.796527777777</v>
-      </c>
-      <c r="P74">
-        <v>13</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L75" s="2">
-        <v>42242.796805555554</v>
-      </c>
-      <c r="M75" s="2">
-        <v>42242.796805555554</v>
-      </c>
-      <c r="N75" s="2">
-        <v>42242.796805555554</v>
-      </c>
-      <c r="O75" s="2">
-        <v>42242.796990740739</v>
-      </c>
-      <c r="P75">
-        <v>16</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L76" s="2">
-        <v>42242.797048611108</v>
-      </c>
-      <c r="M76" s="2">
-        <v>42242.797048611108</v>
-      </c>
-      <c r="N76" s="2">
-        <v>42242.797048611108</v>
-      </c>
-      <c r="O76" s="2">
-        <v>42242.797210648147</v>
-      </c>
-      <c r="P76">
-        <v>14</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L77" s="2">
-        <v>42242.837766203702</v>
-      </c>
-      <c r="M77" s="2">
-        <v>42242.837766203702</v>
-      </c>
-      <c r="N77" s="2">
-        <v>42242.837777777779</v>
-      </c>
-      <c r="O77" s="2">
-        <v>42242.83797453704</v>
-      </c>
-      <c r="P77">
-        <v>18</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L78" s="2">
-        <v>42242.838020833333</v>
-      </c>
-      <c r="M78" s="2">
-        <v>42242.838020833333</v>
-      </c>
-      <c r="N78" s="2">
-        <v>42242.838020833333</v>
-      </c>
-      <c r="O78" s="2">
-        <v>42242.838171296295</v>
-      </c>
-      <c r="P78">
-        <v>13</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L79" s="2">
-        <v>42242.838425925926</v>
-      </c>
-      <c r="M79" s="2">
-        <v>42242.838425925926</v>
-      </c>
-      <c r="N79" s="2">
-        <v>42242.838425925926</v>
-      </c>
-      <c r="O79" s="2">
-        <v>42242.838622685187</v>
-      </c>
-      <c r="P79">
-        <v>17</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L80" s="2">
-        <v>42242.83866898148</v>
-      </c>
-      <c r="M80" s="2">
-        <v>42242.83866898148</v>
-      </c>
-      <c r="N80" s="2">
-        <v>42242.83866898148</v>
-      </c>
-      <c r="O80" s="2">
-        <v>42242.838842592595</v>
-      </c>
-      <c r="P80">
-        <v>15</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L81" s="2">
-        <v>42242.879340277781</v>
-      </c>
-      <c r="M81" s="2">
-        <v>42242.879340277781</v>
-      </c>
-      <c r="N81" s="2">
-        <v>42242.879340277781</v>
-      </c>
-      <c r="O81" s="2">
-        <v>42242.879548611112</v>
-      </c>
-      <c r="P81">
-        <v>18</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L82" s="2">
-        <v>42242.879583333335</v>
-      </c>
-      <c r="M82" s="2">
-        <v>42242.879583333335</v>
-      </c>
-      <c r="N82" s="2">
-        <v>42242.879594907405</v>
-      </c>
-      <c r="O82" s="2">
-        <v>42242.879745370374</v>
-      </c>
-      <c r="P82">
-        <v>14</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L83" s="2">
-        <v>42242.879930555559</v>
-      </c>
-      <c r="M83" s="2">
-        <v>42242.879930555559</v>
-      </c>
-      <c r="N83" s="2">
-        <v>42242.879930555559</v>
-      </c>
-      <c r="O83" s="2">
-        <v>42242.880127314813</v>
-      </c>
-      <c r="P83">
-        <v>17</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L84" s="2">
-        <v>42242.880173611113</v>
-      </c>
-      <c r="M84" s="2">
-        <v>42242.880173611113</v>
-      </c>
-      <c r="N84" s="2">
-        <v>42242.880185185182</v>
-      </c>
-      <c r="O84" s="2">
-        <v>42242.880347222221</v>
-      </c>
-      <c r="P84">
-        <v>15</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L85" s="2">
-        <v>42242.920902777776</v>
-      </c>
-      <c r="M85" s="2">
-        <v>42242.920902777776</v>
-      </c>
-      <c r="N85" s="2">
-        <v>42242.920902777776</v>
-      </c>
-      <c r="O85" s="2">
-        <v>42242.921099537038</v>
-      </c>
-      <c r="P85">
-        <v>17</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L86" s="2">
-        <v>42242.92114583333</v>
-      </c>
-      <c r="M86" s="2">
-        <v>42242.92114583333</v>
-      </c>
-      <c r="N86" s="2">
-        <v>42242.92114583333</v>
-      </c>
-      <c r="O86" s="2">
-        <v>42242.921307870369</v>
-      </c>
-      <c r="P86">
-        <v>14</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L87" s="2">
-        <v>42242.921446759261</v>
-      </c>
-      <c r="M87" s="2">
-        <v>42242.921446759261</v>
-      </c>
-      <c r="N87" s="2">
-        <v>42242.921458333331</v>
-      </c>
-      <c r="O87" s="2">
-        <v>42242.921643518515</v>
-      </c>
-      <c r="P87">
-        <v>17</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L88" s="2">
-        <v>42242.921701388892</v>
-      </c>
-      <c r="M88" s="2">
-        <v>42242.921701388892</v>
-      </c>
-      <c r="N88" s="2">
-        <v>42242.921701388892</v>
-      </c>
-      <c r="O88" s="2">
-        <v>42242.921863425923</v>
-      </c>
-      <c r="P88">
-        <v>14</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L89" s="2">
-        <v>42242.962627314817</v>
-      </c>
-      <c r="M89" s="2">
-        <v>42242.962627314817</v>
-      </c>
-      <c r="N89" s="2">
-        <v>42242.962627314817</v>
-      </c>
-      <c r="O89" s="2">
-        <v>42242.962824074071</v>
-      </c>
-      <c r="P89">
-        <v>17</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L90" s="2">
-        <v>42242.962870370371</v>
-      </c>
-      <c r="M90" s="2">
-        <v>42242.962870370371</v>
-      </c>
-      <c r="N90" s="2">
-        <v>42242.962870370371</v>
-      </c>
-      <c r="O90" s="2">
-        <v>42242.963055555556</v>
-      </c>
-      <c r="P90">
-        <v>16</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L91" s="2">
-        <v>42242.963310185187</v>
-      </c>
-      <c r="M91" s="2">
-        <v>42242.963310185187</v>
-      </c>
-      <c r="N91" s="2">
-        <v>42242.963310185187</v>
-      </c>
-      <c r="O91" s="2">
-        <v>42242.963506944441</v>
-      </c>
-      <c r="P91">
-        <v>17</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L92" s="2">
-        <v>42242.963553240741</v>
-      </c>
-      <c r="M92" s="2">
-        <v>42242.963553240741</v>
-      </c>
-      <c r="N92" s="2">
-        <v>42242.963553240741</v>
-      </c>
-      <c r="O92" s="2">
-        <v>42242.963726851849</v>
-      </c>
-      <c r="P92">
-        <v>15</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L93" s="2">
-        <v>42243.004490740743</v>
-      </c>
-      <c r="M93" s="2">
-        <v>42243.004490740743</v>
-      </c>
-      <c r="N93" s="2">
-        <v>42243.004490740743</v>
-      </c>
-      <c r="O93" s="2">
-        <v>42243.004675925928</v>
-      </c>
-      <c r="P93">
-        <v>16</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L94" s="2">
-        <v>42243.004733796297</v>
-      </c>
-      <c r="M94" s="2">
-        <v>42243.004733796297</v>
-      </c>
-      <c r="N94" s="2">
-        <v>42243.004733796297</v>
-      </c>
-      <c r="O94" s="2">
-        <v>42243.004907407405</v>
-      </c>
-      <c r="P94">
-        <v>15</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L95" s="2">
-        <v>42243.00513888889</v>
-      </c>
-      <c r="M95" s="2">
-        <v>42243.00513888889</v>
-      </c>
-      <c r="N95" s="2">
-        <v>42243.00513888889</v>
-      </c>
-      <c r="O95" s="2">
-        <v>42243.005335648151</v>
-      </c>
-      <c r="P95">
-        <v>17</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L96" s="2">
-        <v>42243.005381944444</v>
-      </c>
-      <c r="M96" s="2">
-        <v>42243.005381944444</v>
-      </c>
-      <c r="N96" s="2">
-        <v>42243.005381944444</v>
-      </c>
-      <c r="O96" s="2">
-        <v>42243.005543981482</v>
-      </c>
-      <c r="P96">
-        <v>14</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L97" s="2">
-        <v>42243.046041666668</v>
-      </c>
-      <c r="M97" s="2">
-        <v>42243.046041666668</v>
-      </c>
-      <c r="N97" s="2">
-        <v>42243.046041666668</v>
-      </c>
-      <c r="O97" s="2">
-        <v>42243.046238425923</v>
-      </c>
-      <c r="P97">
-        <v>17</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L98" s="2">
-        <v>42243.046284722222</v>
-      </c>
-      <c r="M98" s="2">
-        <v>42243.046284722222</v>
-      </c>
-      <c r="N98" s="2">
-        <v>42243.046284722222</v>
-      </c>
-      <c r="O98" s="2">
-        <v>42243.046458333331</v>
-      </c>
-      <c r="P98">
-        <v>15</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L99" s="2">
-        <v>42243.046851851854</v>
-      </c>
-      <c r="M99" s="2">
-        <v>42243.046851851854</v>
-      </c>
-      <c r="N99" s="2">
-        <v>42243.046851851854</v>
-      </c>
-      <c r="O99" s="2">
-        <v>42243.047048611108</v>
-      </c>
-      <c r="P99">
-        <v>17</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L100" s="2">
-        <v>42243.047094907408</v>
-      </c>
-      <c r="M100" s="2">
-        <v>42243.047094907408</v>
-      </c>
-      <c r="N100" s="2">
-        <v>42243.047094907408</v>
-      </c>
-      <c r="O100" s="2">
-        <v>42243.047256944446</v>
-      </c>
-      <c r="P100">
-        <v>14</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L101" s="2">
-        <v>42243.087835648148</v>
-      </c>
-      <c r="M101" s="2">
-        <v>42243.087824074071</v>
-      </c>
-      <c r="N101" s="2">
-        <v>42243.087835648148</v>
-      </c>
-      <c r="O101" s="2">
-        <v>42243.088078703702</v>
-      </c>
-      <c r="P101">
-        <v>22</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L102" s="2">
-        <v>42243.088194444441</v>
-      </c>
-      <c r="M102" s="2">
-        <v>42243.088194444441</v>
-      </c>
-      <c r="N102" s="2">
-        <v>42243.088194444441</v>
-      </c>
-      <c r="O102" s="2">
-        <v>42243.088460648149</v>
-      </c>
-      <c r="P102">
-        <v>23</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L103" s="2">
-        <v>42243.088807870372</v>
-      </c>
-      <c r="M103" s="2">
-        <v>42243.088807870372</v>
-      </c>
-      <c r="N103" s="2">
-        <v>42243.088807870372</v>
-      </c>
-      <c r="O103" s="2">
-        <v>42243.089016203703</v>
-      </c>
-      <c r="P103">
-        <v>18</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L104" s="2">
-        <v>42243.089050925926</v>
-      </c>
-      <c r="M104" s="2">
-        <v>42243.089050925926</v>
-      </c>
-      <c r="N104" s="2">
-        <v>42243.089050925926</v>
-      </c>
-      <c r="O104" s="2">
-        <v>42243.089259259257</v>
-      </c>
-      <c r="P104">
-        <v>18</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L105" s="2">
-        <v>42243.129687499997</v>
-      </c>
-      <c r="M105" s="2">
-        <v>42243.129687499997</v>
-      </c>
-      <c r="N105" s="2">
-        <v>42243.129699074074</v>
-      </c>
-      <c r="O105" s="2">
-        <v>42243.129872685182</v>
-      </c>
-      <c r="P105">
-        <v>16</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L106" s="2">
-        <v>42243.129942129628</v>
-      </c>
-      <c r="M106" s="2">
-        <v>42243.129942129628</v>
-      </c>
-      <c r="N106" s="2">
-        <v>42243.129942129628</v>
-      </c>
-      <c r="O106" s="2">
-        <v>42243.130104166667</v>
-      </c>
-      <c r="P106">
-        <v>14</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L107" s="2">
-        <v>42243.13040509259</v>
-      </c>
-      <c r="M107" s="2">
-        <v>42243.13040509259</v>
-      </c>
-      <c r="N107" s="2">
-        <v>42243.13040509259</v>
-      </c>
-      <c r="O107" s="2">
-        <v>42243.130590277775</v>
-      </c>
-      <c r="P107">
-        <v>16</v>
-      </c>
-      <c r="Q107" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L108" s="2">
-        <v>42243.130648148152</v>
-      </c>
-      <c r="M108" s="2">
-        <v>42243.130648148152</v>
-      </c>
-      <c r="N108" s="2">
-        <v>42243.130648148152</v>
-      </c>
-      <c r="O108" s="2">
-        <v>42243.130798611113</v>
-      </c>
-      <c r="P108">
-        <v>13</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A2:B8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B8" s="4">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>

--- a/docs/attachments/octopusreport.xlsx
+++ b/docs/attachments/octopusreport.xlsx
@@ -1,3 +1,48 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12135" tabRatio="675"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Report" sheetId="4" r:id="rId1"/>
+    <sheet name="Report settings" sheetId="7" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Deployment outcomes" sheetId="9" r:id="rId4"/>
+    <sheet name="Deployment activity" sheetId="5" r:id="rId5"/>
+    <sheet name="Average deployment time" sheetId="6" r:id="rId6"/>
+  </sheets>
+  <definedNames>
+    <definedName name="NativeTimeline_QueueTime">#N/A</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
+  </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId9"/>
+      </x15:timelineCacheRefs>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -5848,6 +5893,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="QueueTime"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer name="QueueTime"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="190499" y="638174"/>
+              <a:ext cx="6505575" cy="1181100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100"/>
+                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Administrator" refreshedDate="42243.580471875001" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="101">
   <cacheSource type="worksheet">
@@ -9959,6 +10080,415 @@
     <s v="paul.stovell"/>
   </r>
 </pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
+  <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Deployment outcome" axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Deployments" fld="0" subtotal="count" baseField="10" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A4:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Project" axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Environment" axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Deployments" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="8" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+  <location ref="A4:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Environment" axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField name="Day" numFmtId="22" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average deployment time" fld="15" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10300,6 +10830,5518 @@
 </timelines>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="C3:J6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="16.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="9" max="9" width="12.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J3"/>
+    </row>
+    <row r="5" spans="3:10" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C5" s="8">
+        <f>GETPIVOTDATA("DeploymentId",'Deployment activity'!$A$4)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:B12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId2"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:Q108"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L8" s="2">
+        <v>42193.295486111114</v>
+      </c>
+      <c r="M8" s="2">
+        <v>42193.295486111114</v>
+      </c>
+      <c r="N8" s="2">
+        <v>42193.295486111114</v>
+      </c>
+      <c r="O8" s="2">
+        <v>42193.295752314814</v>
+      </c>
+      <c r="P8">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" s="2">
+        <v>42193.296458333331</v>
+      </c>
+      <c r="M9" s="2">
+        <v>42193.296458333331</v>
+      </c>
+      <c r="N9" s="2">
+        <v>42193.296458333331</v>
+      </c>
+      <c r="O9" s="2">
+        <v>42193.296712962961</v>
+      </c>
+      <c r="P9">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L10" s="2">
+        <v>42193.297175925924</v>
+      </c>
+      <c r="M10" s="2">
+        <v>42193.297175925924</v>
+      </c>
+      <c r="N10" s="2">
+        <v>42193.297175925924</v>
+      </c>
+      <c r="O10" s="2">
+        <v>42193.297430555554</v>
+      </c>
+      <c r="P10">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L11" s="2">
+        <v>42198.186435185184</v>
+      </c>
+      <c r="M11" s="2">
+        <v>42198.186435185184</v>
+      </c>
+      <c r="N11" s="2">
+        <v>42198.186435185184</v>
+      </c>
+      <c r="O11" s="2">
+        <v>42198.186689814815</v>
+      </c>
+      <c r="P11">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L12" s="2">
+        <v>42202.17046296296</v>
+      </c>
+      <c r="M12" s="2">
+        <v>42202.17046296296</v>
+      </c>
+      <c r="N12" s="2">
+        <v>42202.17046296296</v>
+      </c>
+      <c r="O12" s="2">
+        <v>42202.170671296299</v>
+      </c>
+      <c r="P12">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L13" s="2">
+        <v>42202.234548611108</v>
+      </c>
+      <c r="M13" s="2">
+        <v>42202.234548611108</v>
+      </c>
+      <c r="N13" s="2">
+        <v>42202.234548611108</v>
+      </c>
+      <c r="O13" s="2">
+        <v>42202.234756944446</v>
+      </c>
+      <c r="P13">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" s="2">
+        <v>42202.23510416667</v>
+      </c>
+      <c r="M14" s="2">
+        <v>42202.23510416667</v>
+      </c>
+      <c r="N14" s="2">
+        <v>42202.23510416667</v>
+      </c>
+      <c r="O14" s="2">
+        <v>42202.235312500001</v>
+      </c>
+      <c r="P14">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L15" s="2">
+        <v>42202.235509259262</v>
+      </c>
+      <c r="M15" s="2">
+        <v>42202.235509259262</v>
+      </c>
+      <c r="N15" s="2">
+        <v>42202.235509259262</v>
+      </c>
+      <c r="O15" s="2">
+        <v>42202.235717592594</v>
+      </c>
+      <c r="P15">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L16" s="2">
+        <v>42204.920787037037</v>
+      </c>
+      <c r="M16" s="2">
+        <v>42204.920787037037</v>
+      </c>
+      <c r="N16" s="2">
+        <v>42204.920787037037</v>
+      </c>
+      <c r="O16" s="2">
+        <v>42204.921053240738</v>
+      </c>
+      <c r="P16">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L17" s="2">
+        <v>42204.921631944446</v>
+      </c>
+      <c r="M17" s="2">
+        <v>42204.921620370369</v>
+      </c>
+      <c r="N17" s="2">
+        <v>42204.921631944446</v>
+      </c>
+      <c r="O17" s="2">
+        <v>42204.921875</v>
+      </c>
+      <c r="P17">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L18" s="2">
+        <v>42205.048668981479</v>
+      </c>
+      <c r="M18" s="2">
+        <v>42205.048668981479</v>
+      </c>
+      <c r="N18" s="2">
+        <v>42205.048668981479</v>
+      </c>
+      <c r="O18" s="2">
+        <v>42205.04892361111</v>
+      </c>
+      <c r="P18">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L19" s="2">
+        <v>42205.068344907406</v>
+      </c>
+      <c r="M19" s="2">
+        <v>42205.068344907406</v>
+      </c>
+      <c r="N19" s="2">
+        <v>42205.068344907406</v>
+      </c>
+      <c r="O19" s="2">
+        <v>42205.068449074075</v>
+      </c>
+      <c r="P19">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20" s="2">
+        <v>42205.068726851852</v>
+      </c>
+      <c r="M20" s="2">
+        <v>42205.068726851852</v>
+      </c>
+      <c r="N20" s="2">
+        <v>42205.068726851852</v>
+      </c>
+      <c r="O20" s="2">
+        <v>42205.06962962963</v>
+      </c>
+      <c r="P20">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L21" s="2">
+        <v>42205.070428240739</v>
+      </c>
+      <c r="M21" s="2">
+        <v>42205.070428240739</v>
+      </c>
+      <c r="N21" s="2">
+        <v>42205.070428240739</v>
+      </c>
+      <c r="O21" s="2">
+        <v>42205.070636574077</v>
+      </c>
+      <c r="P21">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L22" s="2">
+        <v>42205.071076388886</v>
+      </c>
+      <c r="M22" s="2">
+        <v>42205.071076388886</v>
+      </c>
+      <c r="N22" s="2">
+        <v>42205.071076388886</v>
+      </c>
+      <c r="O22" s="2">
+        <v>42205.071273148147</v>
+      </c>
+      <c r="P22">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L23" s="2">
+        <v>42205.071446759262</v>
+      </c>
+      <c r="M23" s="2">
+        <v>42205.071446759262</v>
+      </c>
+      <c r="N23" s="2">
+        <v>42205.071446759262</v>
+      </c>
+      <c r="O23" s="2">
+        <v>42205.071701388886</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L24" s="2">
+        <v>42205.072002314817</v>
+      </c>
+      <c r="M24" s="2">
+        <v>42205.072002314817</v>
+      </c>
+      <c r="N24" s="2">
+        <v>42205.073854166665</v>
+      </c>
+      <c r="O24" s="2">
+        <v>42205.07534722222</v>
+      </c>
+      <c r="P24">
+        <v>289</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="2">
+        <v>42205.076863425929</v>
+      </c>
+      <c r="M25" s="2">
+        <v>42205.076863425929</v>
+      </c>
+      <c r="N25" s="2">
+        <v>42205.076863425929</v>
+      </c>
+      <c r="O25" s="2">
+        <v>42205.077060185184</v>
+      </c>
+      <c r="P25">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L26" s="2">
+        <v>42205.077175925922</v>
+      </c>
+      <c r="M26" s="2">
+        <v>42205.077175925922</v>
+      </c>
+      <c r="N26" s="2">
+        <v>42205.077175925922</v>
+      </c>
+      <c r="O26" s="2">
+        <v>42205.077372685184</v>
+      </c>
+      <c r="P26">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L27" s="2">
+        <v>42205.077615740738</v>
+      </c>
+      <c r="M27" s="2">
+        <v>42205.077615740738</v>
+      </c>
+      <c r="N27" s="2">
+        <v>42205.077615740738</v>
+      </c>
+      <c r="O27" s="2">
+        <v>42205.0778125</v>
+      </c>
+      <c r="P27">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L28" s="2">
+        <v>42205.078148148146</v>
+      </c>
+      <c r="M28" s="2">
+        <v>42205.078148148146</v>
+      </c>
+      <c r="N28" s="2">
+        <v>42205.078148148146</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42205.079050925924</v>
+      </c>
+      <c r="P28">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" s="2">
+        <v>42207.170358796298</v>
+      </c>
+      <c r="M29" s="2">
+        <v>42207.170358796298</v>
+      </c>
+      <c r="N29" s="2">
+        <v>42207.170358796298</v>
+      </c>
+      <c r="O29" s="2">
+        <v>42207.170567129629</v>
+      </c>
+      <c r="P29">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" s="2">
+        <v>42207.170601851853</v>
+      </c>
+      <c r="M30" s="2">
+        <v>42207.170601851853</v>
+      </c>
+      <c r="N30" s="2">
+        <v>42207.170601851853</v>
+      </c>
+      <c r="O30" s="2">
+        <v>42207.170844907407</v>
+      </c>
+      <c r="P30">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" s="2">
+        <v>42207.171099537038</v>
+      </c>
+      <c r="M31" s="2">
+        <v>42207.171099537038</v>
+      </c>
+      <c r="N31" s="2">
+        <v>42207.171099537038</v>
+      </c>
+      <c r="O31" s="2">
+        <v>42207.171307870369</v>
+      </c>
+      <c r="P31">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" s="2">
+        <v>42207.171342592592</v>
+      </c>
+      <c r="M32" s="2">
+        <v>42207.171342592592</v>
+      </c>
+      <c r="N32" s="2">
+        <v>42207.171342592592</v>
+      </c>
+      <c r="O32" s="2">
+        <v>42207.171643518515</v>
+      </c>
+      <c r="P32">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L33" s="2">
+        <v>42207.173796296294</v>
+      </c>
+      <c r="M33" s="2">
+        <v>42207.173796296294</v>
+      </c>
+      <c r="N33" s="2">
+        <v>42207.173796296294</v>
+      </c>
+      <c r="O33" s="2">
+        <v>42207.174004629633</v>
+      </c>
+      <c r="P33">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" s="2">
+        <v>42207.174016203702</v>
+      </c>
+      <c r="M34" s="2">
+        <v>42207.174016203702</v>
+      </c>
+      <c r="N34" s="2">
+        <v>42207.174016203702</v>
+      </c>
+      <c r="O34" s="2">
+        <v>42207.174317129633</v>
+      </c>
+      <c r="P34">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" s="2">
+        <v>42214.171388888892</v>
+      </c>
+      <c r="M35" s="2">
+        <v>42214.171388888892</v>
+      </c>
+      <c r="N35" s="2">
+        <v>42214.171388888892</v>
+      </c>
+      <c r="O35" s="2">
+        <v>42214.171597222223</v>
+      </c>
+      <c r="P35">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" s="2">
+        <v>42214.171631944446</v>
+      </c>
+      <c r="M36" s="2">
+        <v>42214.171631944446</v>
+      </c>
+      <c r="N36" s="2">
+        <v>42214.171631944446</v>
+      </c>
+      <c r="O36" s="2">
+        <v>42214.171875</v>
+      </c>
+      <c r="P36">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" s="2">
+        <v>42214.1721412037</v>
+      </c>
+      <c r="M37" s="2">
+        <v>42214.1721412037</v>
+      </c>
+      <c r="N37" s="2">
+        <v>42214.1721412037</v>
+      </c>
+      <c r="O37" s="2">
+        <v>42214.172337962962</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L38" s="2">
+        <v>42214.172384259262</v>
+      </c>
+      <c r="M38" s="2">
+        <v>42214.172384259262</v>
+      </c>
+      <c r="N38" s="2">
+        <v>42214.172384259262</v>
+      </c>
+      <c r="O38" s="2">
+        <v>42214.172685185185</v>
+      </c>
+      <c r="P38">
+        <v>26</v>
+      </c>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" s="2">
+        <v>42214.173900462964</v>
+      </c>
+      <c r="M39" s="2">
+        <v>42214.173900462964</v>
+      </c>
+      <c r="N39" s="2">
+        <v>42214.173900462964</v>
+      </c>
+      <c r="O39" s="2">
+        <v>42214.174201388887</v>
+      </c>
+      <c r="P39">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" s="2">
+        <v>42214.174212962964</v>
+      </c>
+      <c r="M40" s="2">
+        <v>42214.174212962964</v>
+      </c>
+      <c r="N40" s="2">
+        <v>42214.174212962964</v>
+      </c>
+      <c r="O40" s="2">
+        <v>42214.174560185187</v>
+      </c>
+      <c r="P40">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L41" s="2">
+        <v>42220.588078703702</v>
+      </c>
+      <c r="M41" s="2">
+        <v>42220.588078703702</v>
+      </c>
+      <c r="N41" s="2">
+        <v>42220.588078703702</v>
+      </c>
+      <c r="O41" s="2">
+        <v>42220.588287037041</v>
+      </c>
+      <c r="P41">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L42" s="2">
+        <v>42220.588321759256</v>
+      </c>
+      <c r="M42" s="2">
+        <v>42220.588321759256</v>
+      </c>
+      <c r="N42" s="2">
+        <v>42220.588333333333</v>
+      </c>
+      <c r="O42" s="2">
+        <v>42220.588622685187</v>
+      </c>
+      <c r="P42">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L43" s="2">
+        <v>42220.588738425926</v>
+      </c>
+      <c r="M43" s="2">
+        <v>42220.588738425926</v>
+      </c>
+      <c r="N43" s="2">
+        <v>42220.588750000003</v>
+      </c>
+      <c r="O43" s="2">
+        <v>42220.588946759257</v>
+      </c>
+      <c r="P43">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L44" s="2">
+        <v>42220.58898148148</v>
+      </c>
+      <c r="M44" s="2">
+        <v>42220.58898148148</v>
+      </c>
+      <c r="N44" s="2">
+        <v>42220.58898148148</v>
+      </c>
+      <c r="O44" s="2">
+        <v>42220.589247685188</v>
+      </c>
+      <c r="P44">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L45" s="2">
+        <v>42221.174479166664</v>
+      </c>
+      <c r="M45" s="2">
+        <v>42221.174479166664</v>
+      </c>
+      <c r="N45" s="2">
+        <v>42221.174479166664</v>
+      </c>
+      <c r="O45" s="2">
+        <v>42221.174699074072</v>
+      </c>
+      <c r="P45">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L46" s="2">
+        <v>42221.174710648149</v>
+      </c>
+      <c r="M46" s="2">
+        <v>42221.174710648149</v>
+      </c>
+      <c r="N46" s="2">
+        <v>42221.174710648149</v>
+      </c>
+      <c r="O46" s="2">
+        <v>42221.17496527778</v>
+      </c>
+      <c r="P46">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L47" s="2">
+        <v>42222.902222222219</v>
+      </c>
+      <c r="M47" s="2">
+        <v>42222.902222222219</v>
+      </c>
+      <c r="N47" s="2">
+        <v>42222.902222222219</v>
+      </c>
+      <c r="O47" s="2">
+        <v>42222.902233796296</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L48" s="2">
+        <v>42223.206678240742</v>
+      </c>
+      <c r="M48" s="2">
+        <v>42223.206678240742</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L49" s="2">
+        <v>42223.235069444447</v>
+      </c>
+      <c r="M49" s="2">
+        <v>42223.235069444447</v>
+      </c>
+      <c r="N49" s="2">
+        <v>42223.235092592593</v>
+      </c>
+      <c r="O49" s="2">
+        <v>42223.235509259262</v>
+      </c>
+      <c r="P49">
+        <v>38</v>
+      </c>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L50" s="2">
+        <v>42223.235671296294</v>
+      </c>
+      <c r="M50" s="2">
+        <v>42223.235671296294</v>
+      </c>
+      <c r="N50" s="2">
+        <v>42223.235671296294</v>
+      </c>
+      <c r="O50" s="2">
+        <v>42223.236817129633</v>
+      </c>
+      <c r="P50">
+        <v>99</v>
+      </c>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L51" s="2">
+        <v>42226.254120370373</v>
+      </c>
+      <c r="M51" s="2">
+        <v>42226.254120370373</v>
+      </c>
+      <c r="N51" s="2">
+        <v>42226.254120370373</v>
+      </c>
+      <c r="O51" s="2">
+        <v>42226.254432870373</v>
+      </c>
+      <c r="P51">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L52" s="2">
+        <v>42226.254479166666</v>
+      </c>
+      <c r="M52" s="2">
+        <v>42226.254479166666</v>
+      </c>
+      <c r="N52" s="2">
+        <v>42226.254479166666</v>
+      </c>
+      <c r="O52" s="2">
+        <v>42226.254733796297</v>
+      </c>
+      <c r="P52">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L53" s="2">
+        <v>42226.255104166667</v>
+      </c>
+      <c r="M53" s="2">
+        <v>42226.255104166667</v>
+      </c>
+      <c r="N53" s="2">
+        <v>42226.255104166667</v>
+      </c>
+      <c r="O53" s="2">
+        <v>42226.25540509259</v>
+      </c>
+      <c r="P53">
+        <v>26</v>
+      </c>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L54" s="2">
+        <v>42226.255462962959</v>
+      </c>
+      <c r="M54" s="2">
+        <v>42226.255462962959</v>
+      </c>
+      <c r="N54" s="2">
+        <v>42226.255462962959</v>
+      </c>
+      <c r="O54" s="2">
+        <v>42226.25576388889</v>
+      </c>
+      <c r="P54">
+        <v>26</v>
+      </c>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L55" s="2">
+        <v>42228.17396990741</v>
+      </c>
+      <c r="M55" s="2">
+        <v>42228.17396990741</v>
+      </c>
+      <c r="N55" s="2">
+        <v>42228.17396990741</v>
+      </c>
+      <c r="O55" s="2">
+        <v>42228.174201388887</v>
+      </c>
+      <c r="P55">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L56" s="2">
+        <v>42228.174201388887</v>
+      </c>
+      <c r="M56" s="2">
+        <v>42228.174201388887</v>
+      </c>
+      <c r="N56" s="2">
+        <v>42228.174201388887</v>
+      </c>
+      <c r="O56" s="2">
+        <v>42228.174502314818</v>
+      </c>
+      <c r="P56">
+        <v>26</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L57" s="2">
+        <v>42235.170844907407</v>
+      </c>
+      <c r="M57" s="2">
+        <v>42235.170844907407</v>
+      </c>
+      <c r="N57" s="2">
+        <v>42235.170844907407</v>
+      </c>
+      <c r="O57" s="2">
+        <v>42235.171018518522</v>
+      </c>
+      <c r="P57">
+        <v>15</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L58" s="2">
+        <v>42235.171099537038</v>
+      </c>
+      <c r="M58" s="2">
+        <v>42235.171099537038</v>
+      </c>
+      <c r="N58" s="2">
+        <v>42235.171099537038</v>
+      </c>
+      <c r="O58" s="2">
+        <v>42235.171249999999</v>
+      </c>
+      <c r="P58">
+        <v>13</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L59" s="2">
+        <v>42235.171527777777</v>
+      </c>
+      <c r="M59" s="2">
+        <v>42235.171527777777</v>
+      </c>
+      <c r="N59" s="2">
+        <v>42235.171527777777</v>
+      </c>
+      <c r="O59" s="2">
+        <v>42235.171701388892</v>
+      </c>
+      <c r="P59">
+        <v>15</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L60" s="2">
+        <v>42235.171770833331</v>
+      </c>
+      <c r="M60" s="2">
+        <v>42235.171770833331</v>
+      </c>
+      <c r="N60" s="2">
+        <v>42235.171770833331</v>
+      </c>
+      <c r="O60" s="2">
+        <v>42235.171932870369</v>
+      </c>
+      <c r="P60">
+        <v>14</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L61" s="2">
+        <v>42235.173981481479</v>
+      </c>
+      <c r="M61" s="2">
+        <v>42235.173981481479</v>
+      </c>
+      <c r="N61" s="2">
+        <v>42235.173993055556</v>
+      </c>
+      <c r="O61" s="2">
+        <v>42235.174178240741</v>
+      </c>
+      <c r="P61">
+        <v>17</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L62" s="2">
+        <v>42235.174178240741</v>
+      </c>
+      <c r="M62" s="2">
+        <v>42235.174178240741</v>
+      </c>
+      <c r="N62" s="2">
+        <v>42235.174189814818</v>
+      </c>
+      <c r="O62" s="2">
+        <v>42235.174421296295</v>
+      </c>
+      <c r="P62">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L63" s="2">
+        <v>42242.129201388889</v>
+      </c>
+      <c r="M63" s="2">
+        <v>42242.129201388889</v>
+      </c>
+      <c r="N63" s="2">
+        <v>42242.129201388889</v>
+      </c>
+      <c r="O63" s="2">
+        <v>42242.12940972222</v>
+      </c>
+      <c r="P63">
+        <v>18</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L64" s="2">
+        <v>42242.12945601852</v>
+      </c>
+      <c r="M64" s="2">
+        <v>42242.12945601852</v>
+      </c>
+      <c r="N64" s="2">
+        <v>42242.12945601852</v>
+      </c>
+      <c r="O64" s="2">
+        <v>42242.129629629628</v>
+      </c>
+      <c r="P64">
+        <v>15</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L65" s="2">
+        <v>42242.129918981482</v>
+      </c>
+      <c r="M65" s="2">
+        <v>42242.129918981482</v>
+      </c>
+      <c r="N65" s="2">
+        <v>42242.129918981482</v>
+      </c>
+      <c r="O65" s="2">
+        <v>42242.130115740743</v>
+      </c>
+      <c r="P65">
+        <v>17</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L66" s="2">
+        <v>42242.130162037036</v>
+      </c>
+      <c r="M66" s="2">
+        <v>42242.130162037036</v>
+      </c>
+      <c r="N66" s="2">
+        <v>42242.130162037036</v>
+      </c>
+      <c r="O66" s="2">
+        <v>42242.130312499998</v>
+      </c>
+      <c r="P66">
+        <v>13</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L67" s="2">
+        <v>42242.173946759256</v>
+      </c>
+      <c r="M67" s="2">
+        <v>42242.173946759256</v>
+      </c>
+      <c r="N67" s="2">
+        <v>42242.173946759256</v>
+      </c>
+      <c r="O67" s="2">
+        <v>42242.174143518518</v>
+      </c>
+      <c r="P67">
+        <v>17</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L68" s="2">
+        <v>42242.174155092594</v>
+      </c>
+      <c r="M68" s="2">
+        <v>42242.174155092594</v>
+      </c>
+      <c r="N68" s="2">
+        <v>42242.174155092594</v>
+      </c>
+      <c r="O68" s="2">
+        <v>42242.174317129633</v>
+      </c>
+      <c r="P68">
+        <v>14</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L69" s="2">
+        <v>42242.75445601852</v>
+      </c>
+      <c r="M69" s="2">
+        <v>42242.75445601852</v>
+      </c>
+      <c r="N69" s="2">
+        <v>42242.75445601852</v>
+      </c>
+      <c r="O69" s="2">
+        <v>42242.754652777781</v>
+      </c>
+      <c r="P69">
+        <v>17</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L70" s="2">
+        <v>42242.754710648151</v>
+      </c>
+      <c r="M70" s="2">
+        <v>42242.754710648151</v>
+      </c>
+      <c r="N70" s="2">
+        <v>42242.754710648151</v>
+      </c>
+      <c r="O70" s="2">
+        <v>42242.754872685182</v>
+      </c>
+      <c r="P70">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L71" s="2">
+        <v>42242.755057870374</v>
+      </c>
+      <c r="M71" s="2">
+        <v>42242.755046296297</v>
+      </c>
+      <c r="N71" s="2">
+        <v>42242.755057870374</v>
+      </c>
+      <c r="O71" s="2">
+        <v>42242.755243055559</v>
+      </c>
+      <c r="P71">
+        <v>17</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L72" s="2">
+        <v>42242.755300925928</v>
+      </c>
+      <c r="M72" s="2">
+        <v>42242.755300925928</v>
+      </c>
+      <c r="N72" s="2">
+        <v>42242.755300925928</v>
+      </c>
+      <c r="O72" s="2">
+        <v>42242.75545138889</v>
+      </c>
+      <c r="P72">
+        <v>13</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L73" s="2">
+        <v>42242.796122685184</v>
+      </c>
+      <c r="M73" s="2">
+        <v>42242.796122685184</v>
+      </c>
+      <c r="N73" s="2">
+        <v>42242.796122685184</v>
+      </c>
+      <c r="O73" s="2">
+        <v>42242.796319444446</v>
+      </c>
+      <c r="P73">
+        <v>17</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L74" s="2">
+        <v>42242.796377314815</v>
+      </c>
+      <c r="M74" s="2">
+        <v>42242.796377314815</v>
+      </c>
+      <c r="N74" s="2">
+        <v>42242.796377314815</v>
+      </c>
+      <c r="O74" s="2">
+        <v>42242.796527777777</v>
+      </c>
+      <c r="P74">
+        <v>13</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L75" s="2">
+        <v>42242.796805555554</v>
+      </c>
+      <c r="M75" s="2">
+        <v>42242.796805555554</v>
+      </c>
+      <c r="N75" s="2">
+        <v>42242.796805555554</v>
+      </c>
+      <c r="O75" s="2">
+        <v>42242.796990740739</v>
+      </c>
+      <c r="P75">
+        <v>16</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L76" s="2">
+        <v>42242.797048611108</v>
+      </c>
+      <c r="M76" s="2">
+        <v>42242.797048611108</v>
+      </c>
+      <c r="N76" s="2">
+        <v>42242.797048611108</v>
+      </c>
+      <c r="O76" s="2">
+        <v>42242.797210648147</v>
+      </c>
+      <c r="P76">
+        <v>14</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L77" s="2">
+        <v>42242.837766203702</v>
+      </c>
+      <c r="M77" s="2">
+        <v>42242.837766203702</v>
+      </c>
+      <c r="N77" s="2">
+        <v>42242.837777777779</v>
+      </c>
+      <c r="O77" s="2">
+        <v>42242.83797453704</v>
+      </c>
+      <c r="P77">
+        <v>18</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L78" s="2">
+        <v>42242.838020833333</v>
+      </c>
+      <c r="M78" s="2">
+        <v>42242.838020833333</v>
+      </c>
+      <c r="N78" s="2">
+        <v>42242.838020833333</v>
+      </c>
+      <c r="O78" s="2">
+        <v>42242.838171296295</v>
+      </c>
+      <c r="P78">
+        <v>13</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L79" s="2">
+        <v>42242.838425925926</v>
+      </c>
+      <c r="M79" s="2">
+        <v>42242.838425925926</v>
+      </c>
+      <c r="N79" s="2">
+        <v>42242.838425925926</v>
+      </c>
+      <c r="O79" s="2">
+        <v>42242.838622685187</v>
+      </c>
+      <c r="P79">
+        <v>17</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L80" s="2">
+        <v>42242.83866898148</v>
+      </c>
+      <c r="M80" s="2">
+        <v>42242.83866898148</v>
+      </c>
+      <c r="N80" s="2">
+        <v>42242.83866898148</v>
+      </c>
+      <c r="O80" s="2">
+        <v>42242.838842592595</v>
+      </c>
+      <c r="P80">
+        <v>15</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L81" s="2">
+        <v>42242.879340277781</v>
+      </c>
+      <c r="M81" s="2">
+        <v>42242.879340277781</v>
+      </c>
+      <c r="N81" s="2">
+        <v>42242.879340277781</v>
+      </c>
+      <c r="O81" s="2">
+        <v>42242.879548611112</v>
+      </c>
+      <c r="P81">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L82" s="2">
+        <v>42242.879583333335</v>
+      </c>
+      <c r="M82" s="2">
+        <v>42242.879583333335</v>
+      </c>
+      <c r="N82" s="2">
+        <v>42242.879594907405</v>
+      </c>
+      <c r="O82" s="2">
+        <v>42242.879745370374</v>
+      </c>
+      <c r="P82">
+        <v>14</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L83" s="2">
+        <v>42242.879930555559</v>
+      </c>
+      <c r="M83" s="2">
+        <v>42242.879930555559</v>
+      </c>
+      <c r="N83" s="2">
+        <v>42242.879930555559</v>
+      </c>
+      <c r="O83" s="2">
+        <v>42242.880127314813</v>
+      </c>
+      <c r="P83">
+        <v>17</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L84" s="2">
+        <v>42242.880173611113</v>
+      </c>
+      <c r="M84" s="2">
+        <v>42242.880173611113</v>
+      </c>
+      <c r="N84" s="2">
+        <v>42242.880185185182</v>
+      </c>
+      <c r="O84" s="2">
+        <v>42242.880347222221</v>
+      </c>
+      <c r="P84">
+        <v>15</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L85" s="2">
+        <v>42242.920902777776</v>
+      </c>
+      <c r="M85" s="2">
+        <v>42242.920902777776</v>
+      </c>
+      <c r="N85" s="2">
+        <v>42242.920902777776</v>
+      </c>
+      <c r="O85" s="2">
+        <v>42242.921099537038</v>
+      </c>
+      <c r="P85">
+        <v>17</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L86" s="2">
+        <v>42242.92114583333</v>
+      </c>
+      <c r="M86" s="2">
+        <v>42242.92114583333</v>
+      </c>
+      <c r="N86" s="2">
+        <v>42242.92114583333</v>
+      </c>
+      <c r="O86" s="2">
+        <v>42242.921307870369</v>
+      </c>
+      <c r="P86">
+        <v>14</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L87" s="2">
+        <v>42242.921446759261</v>
+      </c>
+      <c r="M87" s="2">
+        <v>42242.921446759261</v>
+      </c>
+      <c r="N87" s="2">
+        <v>42242.921458333331</v>
+      </c>
+      <c r="O87" s="2">
+        <v>42242.921643518515</v>
+      </c>
+      <c r="P87">
+        <v>17</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L88" s="2">
+        <v>42242.921701388892</v>
+      </c>
+      <c r="M88" s="2">
+        <v>42242.921701388892</v>
+      </c>
+      <c r="N88" s="2">
+        <v>42242.921701388892</v>
+      </c>
+      <c r="O88" s="2">
+        <v>42242.921863425923</v>
+      </c>
+      <c r="P88">
+        <v>14</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L89" s="2">
+        <v>42242.962627314817</v>
+      </c>
+      <c r="M89" s="2">
+        <v>42242.962627314817</v>
+      </c>
+      <c r="N89" s="2">
+        <v>42242.962627314817</v>
+      </c>
+      <c r="O89" s="2">
+        <v>42242.962824074071</v>
+      </c>
+      <c r="P89">
+        <v>17</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L90" s="2">
+        <v>42242.962870370371</v>
+      </c>
+      <c r="M90" s="2">
+        <v>42242.962870370371</v>
+      </c>
+      <c r="N90" s="2">
+        <v>42242.962870370371</v>
+      </c>
+      <c r="O90" s="2">
+        <v>42242.963055555556</v>
+      </c>
+      <c r="P90">
+        <v>16</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L91" s="2">
+        <v>42242.963310185187</v>
+      </c>
+      <c r="M91" s="2">
+        <v>42242.963310185187</v>
+      </c>
+      <c r="N91" s="2">
+        <v>42242.963310185187</v>
+      </c>
+      <c r="O91" s="2">
+        <v>42242.963506944441</v>
+      </c>
+      <c r="P91">
+        <v>17</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L92" s="2">
+        <v>42242.963553240741</v>
+      </c>
+      <c r="M92" s="2">
+        <v>42242.963553240741</v>
+      </c>
+      <c r="N92" s="2">
+        <v>42242.963553240741</v>
+      </c>
+      <c r="O92" s="2">
+        <v>42242.963726851849</v>
+      </c>
+      <c r="P92">
+        <v>15</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L93" s="2">
+        <v>42243.004490740743</v>
+      </c>
+      <c r="M93" s="2">
+        <v>42243.004490740743</v>
+      </c>
+      <c r="N93" s="2">
+        <v>42243.004490740743</v>
+      </c>
+      <c r="O93" s="2">
+        <v>42243.004675925928</v>
+      </c>
+      <c r="P93">
+        <v>16</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L94" s="2">
+        <v>42243.004733796297</v>
+      </c>
+      <c r="M94" s="2">
+        <v>42243.004733796297</v>
+      </c>
+      <c r="N94" s="2">
+        <v>42243.004733796297</v>
+      </c>
+      <c r="O94" s="2">
+        <v>42243.004907407405</v>
+      </c>
+      <c r="P94">
+        <v>15</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L95" s="2">
+        <v>42243.00513888889</v>
+      </c>
+      <c r="M95" s="2">
+        <v>42243.00513888889</v>
+      </c>
+      <c r="N95" s="2">
+        <v>42243.00513888889</v>
+      </c>
+      <c r="O95" s="2">
+        <v>42243.005335648151</v>
+      </c>
+      <c r="P95">
+        <v>17</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L96" s="2">
+        <v>42243.005381944444</v>
+      </c>
+      <c r="M96" s="2">
+        <v>42243.005381944444</v>
+      </c>
+      <c r="N96" s="2">
+        <v>42243.005381944444</v>
+      </c>
+      <c r="O96" s="2">
+        <v>42243.005543981482</v>
+      </c>
+      <c r="P96">
+        <v>14</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L97" s="2">
+        <v>42243.046041666668</v>
+      </c>
+      <c r="M97" s="2">
+        <v>42243.046041666668</v>
+      </c>
+      <c r="N97" s="2">
+        <v>42243.046041666668</v>
+      </c>
+      <c r="O97" s="2">
+        <v>42243.046238425923</v>
+      </c>
+      <c r="P97">
+        <v>17</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L98" s="2">
+        <v>42243.046284722222</v>
+      </c>
+      <c r="M98" s="2">
+        <v>42243.046284722222</v>
+      </c>
+      <c r="N98" s="2">
+        <v>42243.046284722222</v>
+      </c>
+      <c r="O98" s="2">
+        <v>42243.046458333331</v>
+      </c>
+      <c r="P98">
+        <v>15</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L99" s="2">
+        <v>42243.046851851854</v>
+      </c>
+      <c r="M99" s="2">
+        <v>42243.046851851854</v>
+      </c>
+      <c r="N99" s="2">
+        <v>42243.046851851854</v>
+      </c>
+      <c r="O99" s="2">
+        <v>42243.047048611108</v>
+      </c>
+      <c r="P99">
+        <v>17</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L100" s="2">
+        <v>42243.047094907408</v>
+      </c>
+      <c r="M100" s="2">
+        <v>42243.047094907408</v>
+      </c>
+      <c r="N100" s="2">
+        <v>42243.047094907408</v>
+      </c>
+      <c r="O100" s="2">
+        <v>42243.047256944446</v>
+      </c>
+      <c r="P100">
+        <v>14</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L101" s="2">
+        <v>42243.087835648148</v>
+      </c>
+      <c r="M101" s="2">
+        <v>42243.087824074071</v>
+      </c>
+      <c r="N101" s="2">
+        <v>42243.087835648148</v>
+      </c>
+      <c r="O101" s="2">
+        <v>42243.088078703702</v>
+      </c>
+      <c r="P101">
+        <v>22</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L102" s="2">
+        <v>42243.088194444441</v>
+      </c>
+      <c r="M102" s="2">
+        <v>42243.088194444441</v>
+      </c>
+      <c r="N102" s="2">
+        <v>42243.088194444441</v>
+      </c>
+      <c r="O102" s="2">
+        <v>42243.088460648149</v>
+      </c>
+      <c r="P102">
+        <v>23</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L103" s="2">
+        <v>42243.088807870372</v>
+      </c>
+      <c r="M103" s="2">
+        <v>42243.088807870372</v>
+      </c>
+      <c r="N103" s="2">
+        <v>42243.088807870372</v>
+      </c>
+      <c r="O103" s="2">
+        <v>42243.089016203703</v>
+      </c>
+      <c r="P103">
+        <v>18</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L104" s="2">
+        <v>42243.089050925926</v>
+      </c>
+      <c r="M104" s="2">
+        <v>42243.089050925926</v>
+      </c>
+      <c r="N104" s="2">
+        <v>42243.089050925926</v>
+      </c>
+      <c r="O104" s="2">
+        <v>42243.089259259257</v>
+      </c>
+      <c r="P104">
+        <v>18</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L105" s="2">
+        <v>42243.129687499997</v>
+      </c>
+      <c r="M105" s="2">
+        <v>42243.129687499997</v>
+      </c>
+      <c r="N105" s="2">
+        <v>42243.129699074074</v>
+      </c>
+      <c r="O105" s="2">
+        <v>42243.129872685182</v>
+      </c>
+      <c r="P105">
+        <v>16</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L106" s="2">
+        <v>42243.129942129628</v>
+      </c>
+      <c r="M106" s="2">
+        <v>42243.129942129628</v>
+      </c>
+      <c r="N106" s="2">
+        <v>42243.129942129628</v>
+      </c>
+      <c r="O106" s="2">
+        <v>42243.130104166667</v>
+      </c>
+      <c r="P106">
+        <v>14</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L107" s="2">
+        <v>42243.13040509259</v>
+      </c>
+      <c r="M107" s="2">
+        <v>42243.13040509259</v>
+      </c>
+      <c r="N107" s="2">
+        <v>42243.13040509259</v>
+      </c>
+      <c r="O107" s="2">
+        <v>42243.130590277775</v>
+      </c>
+      <c r="P107">
+        <v>16</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L108" s="2">
+        <v>42243.130648148152</v>
+      </c>
+      <c r="M108" s="2">
+        <v>42243.130648148152</v>
+      </c>
+      <c r="N108" s="2">
+        <v>42243.130648148152</v>
+      </c>
+      <c r="O108" s="2">
+        <v>42243.130798611113</v>
+      </c>
+      <c r="P108">
+        <v>13</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="4">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
